--- a/Calibration/tempCalibrationData.xlsx
+++ b/Calibration/tempCalibrationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whits\STUFF\SCHOOL\ME121-Fishtank\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB23114-4124-4003-9906-C24B7958038E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAB90C4-92EF-4323-A4B1-6A90024FABCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{54487774-316F-4B11-9400-23F4EBD6C940}"/>
   </bookViews>
@@ -33,16 +33,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve"> Temp C</t>
+  </si>
+  <si>
+    <t>Avrg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +55,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -79,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,16 +408,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C169E9-91DA-46AB-B124-2303AFC055B5}">
-  <dimension ref="A2:L69"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <f>AVERAGE(B3:B69)</f>
+        <v>842.82089552238801</v>
+      </c>
+      <c r="C1">
+        <f>AVERAGE(C3:C69)</f>
+        <v>849.8955223880597</v>
+      </c>
+      <c r="D1">
+        <f>AVERAGE(D3:D69)</f>
+        <v>777.1044776119403</v>
+      </c>
+      <c r="E1">
+        <f>AVERAGE(E3:E69)</f>
+        <v>503.05970149253733</v>
+      </c>
+      <c r="F1">
+        <f>AVERAGE(F3:F69)</f>
+        <v>493.71641791044777</v>
+      </c>
+      <c r="G1">
+        <f>AVERAGE(G3:G69)</f>
+        <v>576.32835820895525</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(H3:H69)</f>
+        <v>646.08955223880594</v>
+      </c>
+      <c r="I1">
+        <f>AVERAGE(I3:I69)</f>
+        <v>726.74626865671644</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(J3:J69)</f>
+        <v>891.67164179104475</v>
+      </c>
+      <c r="K1">
+        <f>AVERAGE(K3:K69)</f>
+        <v>742.91044776119406</v>
+      </c>
+      <c r="L1">
+        <f>AVERAGE(L3:L69)</f>
+        <v>677.97014925373139</v>
+      </c>
+    </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">

--- a/Calibration/tempCalibrationData.xlsx
+++ b/Calibration/tempCalibrationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whits\STUFF\SCHOOL\ME121-Fishtank\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAB90C4-92EF-4323-A4B1-6A90024FABCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2FA326-2AD0-4D6C-A149-0B30FC694A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{54487774-316F-4B11-9400-23F4EBD6C940}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="8532" windowHeight="12936" xr2:uid="{54487774-316F-4B11-9400-23F4EBD6C940}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,62 +408,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C169E9-91DA-46AB-B124-2303AFC055B5}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <f>AVERAGE(B3:B69)</f>
+        <f t="shared" ref="B1:O1" si="0">AVERAGE(B3:B69)</f>
         <v>842.82089552238801</v>
       </c>
       <c r="C1">
-        <f>AVERAGE(C3:C69)</f>
+        <f t="shared" si="0"/>
         <v>849.8955223880597</v>
       </c>
       <c r="D1">
-        <f>AVERAGE(D3:D69)</f>
+        <f t="shared" si="0"/>
         <v>777.1044776119403</v>
       </c>
       <c r="E1">
-        <f>AVERAGE(E3:E69)</f>
+        <f t="shared" si="0"/>
         <v>503.05970149253733</v>
       </c>
       <c r="F1">
-        <f>AVERAGE(F3:F69)</f>
+        <f t="shared" si="0"/>
         <v>493.71641791044777</v>
       </c>
       <c r="G1">
-        <f>AVERAGE(G3:G69)</f>
+        <f t="shared" si="0"/>
         <v>576.32835820895525</v>
       </c>
       <c r="H1">
-        <f>AVERAGE(H3:H69)</f>
+        <f t="shared" si="0"/>
         <v>646.08955223880594</v>
       </c>
       <c r="I1">
-        <f>AVERAGE(I3:I69)</f>
+        <f t="shared" si="0"/>
         <v>726.74626865671644</v>
       </c>
       <c r="J1">
-        <f>AVERAGE(J3:J69)</f>
+        <f t="shared" si="0"/>
         <v>891.67164179104475</v>
       </c>
       <c r="K1">
-        <f>AVERAGE(K3:K69)</f>
+        <f t="shared" si="0"/>
         <v>742.91044776119406</v>
       </c>
       <c r="L1">
-        <f>AVERAGE(L3:L69)</f>
+        <f t="shared" si="0"/>
         <v>677.97014925373139</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>406</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>430.9850746268657</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>457.9850746268657</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -500,8 +514,17 @@
       <c r="L2" s="1">
         <v>42.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="N2" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="O2" s="1">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>844</v>
       </c>
@@ -535,8 +558,17 @@
       <c r="L3">
         <v>678</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>406</v>
+      </c>
+      <c r="N3">
+        <v>431</v>
+      </c>
+      <c r="O3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>773</v>
       </c>
@@ -570,8 +602,17 @@
       <c r="L4">
         <v>679</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>406</v>
+      </c>
+      <c r="N4">
+        <v>431</v>
+      </c>
+      <c r="O4">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>844</v>
       </c>
@@ -605,8 +646,17 @@
       <c r="L5">
         <v>681</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>406</v>
+      </c>
+      <c r="N5">
+        <v>431</v>
+      </c>
+      <c r="O5">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>843</v>
       </c>
@@ -640,8 +690,17 @@
       <c r="L6">
         <v>678</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>406</v>
+      </c>
+      <c r="N6">
+        <v>431</v>
+      </c>
+      <c r="O6">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>842</v>
       </c>
@@ -675,8 +734,17 @@
       <c r="L7">
         <v>677</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>406</v>
+      </c>
+      <c r="N7">
+        <v>431</v>
+      </c>
+      <c r="O7">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>847</v>
       </c>
@@ -710,8 +778,17 @@
       <c r="L8">
         <v>677</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>406</v>
+      </c>
+      <c r="N8">
+        <v>431</v>
+      </c>
+      <c r="O8">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>843</v>
       </c>
@@ -745,8 +822,17 @@
       <c r="L9">
         <v>677</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>406</v>
+      </c>
+      <c r="N9">
+        <v>431</v>
+      </c>
+      <c r="O9">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>844</v>
       </c>
@@ -780,8 +866,17 @@
       <c r="L10">
         <v>678</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>406</v>
+      </c>
+      <c r="N10">
+        <v>431</v>
+      </c>
+      <c r="O10">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>843</v>
       </c>
@@ -815,8 +910,17 @@
       <c r="L11">
         <v>678</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>406</v>
+      </c>
+      <c r="N11">
+        <v>431</v>
+      </c>
+      <c r="O11">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>845</v>
       </c>
@@ -850,8 +954,17 @@
       <c r="L12">
         <v>677</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>406</v>
+      </c>
+      <c r="N12">
+        <v>430</v>
+      </c>
+      <c r="O12">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>844</v>
       </c>
@@ -885,8 +998,17 @@
       <c r="L13">
         <v>676</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>406</v>
+      </c>
+      <c r="N13">
+        <v>431</v>
+      </c>
+      <c r="O13">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>844</v>
       </c>
@@ -920,8 +1042,17 @@
       <c r="L14">
         <v>677</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>406</v>
+      </c>
+      <c r="N14">
+        <v>431</v>
+      </c>
+      <c r="O14">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>844</v>
       </c>
@@ -955,8 +1086,17 @@
       <c r="L15">
         <v>678</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>406</v>
+      </c>
+      <c r="N15">
+        <v>431</v>
+      </c>
+      <c r="O15">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>844</v>
       </c>
@@ -990,8 +1130,17 @@
       <c r="L16">
         <v>678</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>406</v>
+      </c>
+      <c r="N16">
+        <v>431</v>
+      </c>
+      <c r="O16">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>844</v>
       </c>
@@ -1025,8 +1174,17 @@
       <c r="L17">
         <v>678</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>406</v>
+      </c>
+      <c r="N17">
+        <v>431</v>
+      </c>
+      <c r="O17">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>841</v>
       </c>
@@ -1060,8 +1218,17 @@
       <c r="L18">
         <v>678</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>406</v>
+      </c>
+      <c r="N18">
+        <v>431</v>
+      </c>
+      <c r="O18">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>844</v>
       </c>
@@ -1095,8 +1262,17 @@
       <c r="L19">
         <v>678</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>406</v>
+      </c>
+      <c r="N19">
+        <v>431</v>
+      </c>
+      <c r="O19">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>844</v>
       </c>
@@ -1130,8 +1306,17 @@
       <c r="L20">
         <v>676</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>406</v>
+      </c>
+      <c r="N20">
+        <v>431</v>
+      </c>
+      <c r="O20">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>843</v>
       </c>
@@ -1165,8 +1350,17 @@
       <c r="L21">
         <v>678</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>406</v>
+      </c>
+      <c r="N21">
+        <v>431</v>
+      </c>
+      <c r="O21">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>844</v>
       </c>
@@ -1200,8 +1394,17 @@
       <c r="L22">
         <v>679</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>406</v>
+      </c>
+      <c r="N22">
+        <v>431</v>
+      </c>
+      <c r="O22">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>843</v>
       </c>
@@ -1235,8 +1438,17 @@
       <c r="L23">
         <v>676</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>406</v>
+      </c>
+      <c r="N23">
+        <v>431</v>
+      </c>
+      <c r="O23">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>844</v>
       </c>
@@ -1270,8 +1482,17 @@
       <c r="L24">
         <v>679</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>406</v>
+      </c>
+      <c r="N24">
+        <v>431</v>
+      </c>
+      <c r="O24">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>843</v>
       </c>
@@ -1305,8 +1526,17 @@
       <c r="L25">
         <v>678</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>406</v>
+      </c>
+      <c r="N25">
+        <v>431</v>
+      </c>
+      <c r="O25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>843</v>
       </c>
@@ -1340,8 +1570,17 @@
       <c r="L26">
         <v>677</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>406</v>
+      </c>
+      <c r="N26">
+        <v>431</v>
+      </c>
+      <c r="O26">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>844</v>
       </c>
@@ -1375,8 +1614,17 @@
       <c r="L27">
         <v>678</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>406</v>
+      </c>
+      <c r="N27">
+        <v>431</v>
+      </c>
+      <c r="O27">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>844</v>
       </c>
@@ -1410,8 +1658,17 @@
       <c r="L28">
         <v>676</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>406</v>
+      </c>
+      <c r="N28">
+        <v>431</v>
+      </c>
+      <c r="O28">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>843</v>
       </c>
@@ -1445,8 +1702,17 @@
       <c r="L29">
         <v>678</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>406</v>
+      </c>
+      <c r="N29">
+        <v>431</v>
+      </c>
+      <c r="O29">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>842</v>
       </c>
@@ -1480,8 +1746,17 @@
       <c r="L30">
         <v>678</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>406</v>
+      </c>
+      <c r="N30">
+        <v>431</v>
+      </c>
+      <c r="O30">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>843</v>
       </c>
@@ -1515,8 +1790,17 @@
       <c r="L31">
         <v>678</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>406</v>
+      </c>
+      <c r="N31">
+        <v>431</v>
+      </c>
+      <c r="O31">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>844</v>
       </c>
@@ -1550,8 +1834,17 @@
       <c r="L32">
         <v>674</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>406</v>
+      </c>
+      <c r="N32">
+        <v>431</v>
+      </c>
+      <c r="O32">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>844</v>
       </c>
@@ -1585,8 +1878,17 @@
       <c r="L33">
         <v>678</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>406</v>
+      </c>
+      <c r="N33">
+        <v>431</v>
+      </c>
+      <c r="O33">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>844</v>
       </c>
@@ -1620,8 +1922,17 @@
       <c r="L34">
         <v>677</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>406</v>
+      </c>
+      <c r="N34">
+        <v>431</v>
+      </c>
+      <c r="O34">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>844</v>
       </c>
@@ -1655,8 +1966,17 @@
       <c r="L35">
         <v>678</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>406</v>
+      </c>
+      <c r="N35">
+        <v>431</v>
+      </c>
+      <c r="O35">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>844</v>
       </c>
@@ -1690,8 +2010,17 @@
       <c r="L36">
         <v>679</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>406</v>
+      </c>
+      <c r="N36">
+        <v>431</v>
+      </c>
+      <c r="O36">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>844</v>
       </c>
@@ -1725,8 +2054,17 @@
       <c r="L37">
         <v>678</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>406</v>
+      </c>
+      <c r="N37">
+        <v>431</v>
+      </c>
+      <c r="O37">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>843</v>
       </c>
@@ -1760,8 +2098,17 @@
       <c r="L38">
         <v>689</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>406</v>
+      </c>
+      <c r="N38">
+        <v>431</v>
+      </c>
+      <c r="O38">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>840</v>
       </c>
@@ -1795,8 +2142,17 @@
       <c r="L39">
         <v>678</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>406</v>
+      </c>
+      <c r="N39">
+        <v>431</v>
+      </c>
+      <c r="O39">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>844</v>
       </c>
@@ -1830,8 +2186,17 @@
       <c r="L40">
         <v>678</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>406</v>
+      </c>
+      <c r="N40">
+        <v>431</v>
+      </c>
+      <c r="O40">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>844</v>
       </c>
@@ -1865,8 +2230,17 @@
       <c r="L41">
         <v>678</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>406</v>
+      </c>
+      <c r="N41">
+        <v>431</v>
+      </c>
+      <c r="O41">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>844</v>
       </c>
@@ -1900,8 +2274,17 @@
       <c r="L42">
         <v>678</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>406</v>
+      </c>
+      <c r="N42">
+        <v>431</v>
+      </c>
+      <c r="O42">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>843</v>
       </c>
@@ -1935,8 +2318,17 @@
       <c r="L43">
         <v>678</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>406</v>
+      </c>
+      <c r="N43">
+        <v>431</v>
+      </c>
+      <c r="O43">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>844</v>
       </c>
@@ -1970,8 +2362,17 @@
       <c r="L44">
         <v>678</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>406</v>
+      </c>
+      <c r="N44">
+        <v>431</v>
+      </c>
+      <c r="O44">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>844</v>
       </c>
@@ -2005,8 +2406,17 @@
       <c r="L45">
         <v>678</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>406</v>
+      </c>
+      <c r="N45">
+        <v>431</v>
+      </c>
+      <c r="O45">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>844</v>
       </c>
@@ -2040,8 +2450,17 @@
       <c r="L46">
         <v>677</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>406</v>
+      </c>
+      <c r="N46">
+        <v>431</v>
+      </c>
+      <c r="O46">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>843</v>
       </c>
@@ -2075,8 +2494,17 @@
       <c r="L47">
         <v>678</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M47">
+        <v>406</v>
+      </c>
+      <c r="N47">
+        <v>431</v>
+      </c>
+      <c r="O47">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>844</v>
       </c>
@@ -2110,8 +2538,17 @@
       <c r="L48">
         <v>678</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <v>406</v>
+      </c>
+      <c r="N48">
+        <v>431</v>
+      </c>
+      <c r="O48">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>844</v>
       </c>
@@ -2145,8 +2582,17 @@
       <c r="L49">
         <v>678</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <v>406</v>
+      </c>
+      <c r="N49">
+        <v>431</v>
+      </c>
+      <c r="O49">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>845</v>
       </c>
@@ -2180,8 +2626,17 @@
       <c r="L50">
         <v>678</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>406</v>
+      </c>
+      <c r="N50">
+        <v>431</v>
+      </c>
+      <c r="O50">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>847</v>
       </c>
@@ -2215,8 +2670,17 @@
       <c r="L51">
         <v>678</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <v>406</v>
+      </c>
+      <c r="N51">
+        <v>431</v>
+      </c>
+      <c r="O51">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>844</v>
       </c>
@@ -2250,8 +2714,17 @@
       <c r="L52">
         <v>680</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <v>406</v>
+      </c>
+      <c r="N52">
+        <v>431</v>
+      </c>
+      <c r="O52">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>844</v>
       </c>
@@ -2285,8 +2758,17 @@
       <c r="L53">
         <v>677</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M53">
+        <v>406</v>
+      </c>
+      <c r="N53">
+        <v>431</v>
+      </c>
+      <c r="O53">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>844</v>
       </c>
@@ -2320,8 +2802,17 @@
       <c r="L54">
         <v>677</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>406</v>
+      </c>
+      <c r="N54">
+        <v>431</v>
+      </c>
+      <c r="O54">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>844</v>
       </c>
@@ -2355,8 +2846,17 @@
       <c r="L55">
         <v>678</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <v>406</v>
+      </c>
+      <c r="N55">
+        <v>431</v>
+      </c>
+      <c r="O55">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>844</v>
       </c>
@@ -2390,8 +2890,17 @@
       <c r="L56">
         <v>678</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M56">
+        <v>406</v>
+      </c>
+      <c r="N56">
+        <v>431</v>
+      </c>
+      <c r="O56">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>844</v>
       </c>
@@ -2425,8 +2934,17 @@
       <c r="L57">
         <v>678</v>
       </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <v>406</v>
+      </c>
+      <c r="N57">
+        <v>431</v>
+      </c>
+      <c r="O57">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>843</v>
       </c>
@@ -2460,8 +2978,17 @@
       <c r="L58">
         <v>678</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>406</v>
+      </c>
+      <c r="N58">
+        <v>431</v>
+      </c>
+      <c r="O58">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>843</v>
       </c>
@@ -2495,8 +3022,17 @@
       <c r="L59">
         <v>678</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M59">
+        <v>406</v>
+      </c>
+      <c r="N59">
+        <v>431</v>
+      </c>
+      <c r="O59">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>843</v>
       </c>
@@ -2530,8 +3066,17 @@
       <c r="L60">
         <v>678</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M60">
+        <v>406</v>
+      </c>
+      <c r="N60">
+        <v>431</v>
+      </c>
+      <c r="O60">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>850</v>
       </c>
@@ -2565,8 +3110,17 @@
       <c r="L61">
         <v>678</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M61">
+        <v>406</v>
+      </c>
+      <c r="N61">
+        <v>431</v>
+      </c>
+      <c r="O61">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>843</v>
       </c>
@@ -2600,8 +3154,17 @@
       <c r="L62">
         <v>678</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <v>406</v>
+      </c>
+      <c r="N62">
+        <v>431</v>
+      </c>
+      <c r="O62">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>844</v>
       </c>
@@ -2635,8 +3198,17 @@
       <c r="L63">
         <v>678</v>
       </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <v>406</v>
+      </c>
+      <c r="N63">
+        <v>431</v>
+      </c>
+      <c r="O63">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>843</v>
       </c>
@@ -2670,8 +3242,17 @@
       <c r="L64">
         <v>681</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <v>406</v>
+      </c>
+      <c r="N64">
+        <v>431</v>
+      </c>
+      <c r="O64">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>850</v>
       </c>
@@ -2705,8 +3286,17 @@
       <c r="L65">
         <v>677</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65">
+        <v>406</v>
+      </c>
+      <c r="N65">
+        <v>431</v>
+      </c>
+      <c r="O65">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>844</v>
       </c>
@@ -2740,8 +3330,17 @@
       <c r="L66">
         <v>677</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M66">
+        <v>406</v>
+      </c>
+      <c r="N66">
+        <v>431</v>
+      </c>
+      <c r="O66">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>844</v>
       </c>
@@ -2775,8 +3374,17 @@
       <c r="L67">
         <v>677</v>
       </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67">
+        <v>406</v>
+      </c>
+      <c r="N67">
+        <v>431</v>
+      </c>
+      <c r="O67">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>844</v>
       </c>
@@ -2810,8 +3418,17 @@
       <c r="L68">
         <v>678</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68">
+        <v>406</v>
+      </c>
+      <c r="N68">
+        <v>431</v>
+      </c>
+      <c r="O68">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>844</v>
       </c>
@@ -2844,6 +3461,15 @@
       </c>
       <c r="L69">
         <v>678</v>
+      </c>
+      <c r="M69">
+        <v>406</v>
+      </c>
+      <c r="N69">
+        <v>431</v>
+      </c>
+      <c r="O69">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
